--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Balance Sheet Compare</t>
   </si>
@@ -62,9 +62,6 @@
     <t>twtr</t>
   </si>
   <si>
-    <t>hpq</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -116,16 +113,28 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</t>
-  </si>
-  <si>
-    <t>http://test.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
-  </si>
-  <si>
     <t>http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>API KEY</t>
+  </si>
+  <si>
+    <t>API_KEY</t>
+  </si>
+  <si>
+    <t>22f14062-1cc0-0298-1cae-cd793a60c05f</t>
+  </si>
+  <si>
+    <t>SORT</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +241,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0C343D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -551,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +634,6 @@
     <xf numFmtId="6" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -651,6 +672,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -973,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1007,1007 +1042,1027 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>APPLE INC</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;E6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>INTERNATIONAL BUSINESS MACHINES CORP</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;F6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>MICROSOFT CORPORATION</v>
+      </c>
+      <c r="G5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;G6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>Google Inc.</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;H6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>FACEBOOK INC</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;I6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>AMAZON COM INC</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;J6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>TWITTER, INC.</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;K6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>FORD MOTOR CO</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>APPLE INC</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;E6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>INTERNATIONAL BUSINESS MACHINES CORP</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;F6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>MICROSOFT CORPORATION</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;G6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>Google Inc.</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;H6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>FACEBOOK INC</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;I6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>AMAZON COM INC</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;J6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>TWITTER, INC.</v>
-      </c>
-      <c r="K5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;K6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>HEWLETT PACKARD CO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;C37&amp;"&amp;Ticker="&amp;D4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0000320193</v>
+      </c>
+      <c r="E6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0000051143</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;F4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0000789019</v>
+      </c>
+      <c r="G6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;G4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0001288776</v>
+      </c>
+      <c r="H6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;H4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0001326801</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;I4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0001018724</v>
+      </c>
+      <c r="J6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;J4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0001418091</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;K4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <v>0000037996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;C68&amp;"&amp;Ticker="&amp;D4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0000320193</v>
-      </c>
-      <c r="E6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0000051143</v>
-      </c>
-      <c r="F6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;F4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0000789019</v>
-      </c>
-      <c r="G6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;G4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0001288776</v>
-      </c>
-      <c r="H6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;H4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0001326801</v>
-      </c>
-      <c r="I6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;I4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0001018724</v>
-      </c>
-      <c r="J6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;J4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0001418091</v>
-      </c>
-      <c r="K6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$68&amp;"&amp;Ticker="&amp;K4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
-        <v>0000047217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" s="14" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Assets, Current</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+      <c r="D7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>68531000000</v>
+      </c>
+      <c r="E7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>49422000000</v>
+      </c>
+      <c r="F7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>114246000000</v>
+      </c>
+      <c r="G7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>79978000000</v>
+      </c>
+      <c r="H7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>13670000000</v>
+      </c>
+      <c r="I7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>31327000000</v>
+      </c>
+      <c r="J7" s="16">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>4255853000</v>
+      </c>
+      <c r="K7" s="17" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C8&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Assets, Noncurrent</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="G8" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>50448000000</v>
+      </c>
+      <c r="H8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="I8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="J8" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C9&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Assets</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>231839000000</v>
+      </c>
+      <c r="E9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>117532000000</v>
+      </c>
+      <c r="F9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>172384000000</v>
+      </c>
+      <c r="G9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>130426000000</v>
+      </c>
+      <c r="H9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>40184000000</v>
+      </c>
+      <c r="I9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>54505000000</v>
+      </c>
+      <c r="J9" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>5583082000</v>
+      </c>
+      <c r="K9" s="21">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>208527000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C10&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities, Current</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>63448000000</v>
+      </c>
+      <c r="E10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>39600000000</v>
+      </c>
+      <c r="F10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>45625000000</v>
+      </c>
+      <c r="G10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>16805000000</v>
+      </c>
+      <c r="H10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>1424000000</v>
+      </c>
+      <c r="I10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>28089000000</v>
+      </c>
+      <c r="J10" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>393794000</v>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C11&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities, Noncurrent</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="G11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="H11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="I11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="J11" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="K11" s="21" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C12&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>120292000000</v>
+      </c>
+      <c r="E12" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>105518000000</v>
+      </c>
+      <c r="F12" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>82600000000</v>
+      </c>
+      <c r="G12" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="H12" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>4088000000</v>
+      </c>
+      <c r="I12" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="J12" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>1956679000</v>
+      </c>
+      <c r="K12" s="21">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>183353000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C13&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Stockholders' Equity Attributable to Parent</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>111547000000</v>
+      </c>
+      <c r="E13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>11868000000</v>
+      </c>
+      <c r="F13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>89784000000</v>
+      </c>
+      <c r="G13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>103860000000</v>
+      </c>
+      <c r="H13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>36096000000</v>
+      </c>
+      <c r="I13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>10741000000</v>
+      </c>
+      <c r="J13" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>3626403000</v>
+      </c>
+      <c r="K13" s="21">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>24805000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C14&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="E14" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>146000000</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="G14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="H14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="I14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="J14" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="K14" s="21">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C15&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="E15" s="20">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>12014000000</v>
+      </c>
+      <c r="F15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="G15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="H15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="I15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="J15" s="20" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>NIL</v>
+      </c>
+      <c r="K15" s="21">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>24832000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C16&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities and Equity</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>231839000000</v>
+      </c>
+      <c r="E16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>117532000000</v>
+      </c>
+      <c r="F16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>172384000000</v>
+      </c>
+      <c r="G16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>130426000000</v>
+      </c>
+      <c r="H16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>40184000000</v>
+      </c>
+      <c r="I16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>54505000000</v>
+      </c>
+      <c r="J16" s="24">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>5583082000</v>
+      </c>
+      <c r="K16" s="25">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>208527000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C17&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Current</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>68531000000</v>
-      </c>
-      <c r="E7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>49422000000</v>
-      </c>
-      <c r="F7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>114246000000</v>
-      </c>
-      <c r="G7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>79978000000</v>
-      </c>
-      <c r="H7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>13670000000</v>
-      </c>
-      <c r="I7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>31327000000</v>
-      </c>
-      <c r="J7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>4255853000</v>
-      </c>
-      <c r="K7" s="17">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>50145000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C8&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Noncurrent</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="E8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="F8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="G8" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>50448000000</v>
-      </c>
-      <c r="H8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="I8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="J8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C9&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>231839000000</v>
-      </c>
-      <c r="E9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>117532000000</v>
-      </c>
-      <c r="F9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>172384000000</v>
-      </c>
-      <c r="G9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>130426000000</v>
-      </c>
-      <c r="H9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>40184000000</v>
-      </c>
-      <c r="I9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>54505000000</v>
-      </c>
-      <c r="J9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>5583082000</v>
-      </c>
-      <c r="K9" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>103206000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C10&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Current</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>63448000000</v>
-      </c>
-      <c r="E10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>39600000000</v>
-      </c>
-      <c r="F10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>45625000000</v>
-      </c>
-      <c r="G10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>16805000000</v>
-      </c>
-      <c r="H10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>1424000000</v>
-      </c>
-      <c r="I10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>28089000000</v>
-      </c>
-      <c r="J10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>393794000</v>
-      </c>
-      <c r="K10" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>43735000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C11&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Noncurrent</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="E11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="F11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="G11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="H11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="I11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="J11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="K11" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C12&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>120292000000</v>
-      </c>
-      <c r="E12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>105518000000</v>
-      </c>
-      <c r="F12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>82600000000</v>
-      </c>
-      <c r="G12" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="H12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>4088000000</v>
-      </c>
-      <c r="I12" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="J12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>1956679000</v>
-      </c>
-      <c r="K12" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C13&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Parent</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>111547000000</v>
-      </c>
-      <c r="E13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>11868000000</v>
-      </c>
-      <c r="F13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>89784000000</v>
-      </c>
-      <c r="G13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>103860000000</v>
-      </c>
-      <c r="H13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>36096000000</v>
-      </c>
-      <c r="I13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>10741000000</v>
-      </c>
-      <c r="J13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>3626403000</v>
-      </c>
-      <c r="K13" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>26731000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C14&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="E14" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>146000000</v>
-      </c>
-      <c r="F14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="G14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="H14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="I14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="J14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="K14" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>396000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C15&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="E15" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>12014000000</v>
-      </c>
-      <c r="F15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="G15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="H15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="I15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="J15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-      <c r="K15" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>27127000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C16&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities and Equity</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>231839000000</v>
-      </c>
-      <c r="E16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>117532000000</v>
-      </c>
-      <c r="F16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>172384000000</v>
-      </c>
-      <c r="G16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>130426000000</v>
-      </c>
-      <c r="H16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>40184000000</v>
-      </c>
-      <c r="I16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>54505000000</v>
-      </c>
-      <c r="J16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>5583082000</v>
-      </c>
-      <c r="K16" s="26">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$68&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>103206000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C17&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Current</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f>D7</f>
         <v>68531000000</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <f>E7</f>
         <v>49422000000</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <f>F7</f>
         <v>114246000000</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <f>G7</f>
         <v>79978000000</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <f>H7</f>
         <v>13670000000</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f>I7</f>
         <v>31327000000</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <f>J7</f>
         <v>4255853000</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28" t="str">
         <f>K7</f>
-        <v>50145000000</v>
+        <v>NIL</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="30" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C18&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+      <c r="A18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="29" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C18&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Noncurrent</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="29">
-        <f t="shared" ref="D18:J18" si="0">IF(AND(D8="NIL",D7="NIL"),"NIL",IF(D8="NIL",D19-IF(D17="NIL",0,D17),D8))</f>
+      <c r="C18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="28">
+        <f>IF(AND(D8="NIL",D7="NIL"),"NIL",IF(D8="NIL",D19-IF(D17="NIL",0,D17),D8))</f>
         <v>163308000000</v>
       </c>
-      <c r="E18" s="29">
-        <f t="shared" si="0"/>
+      <c r="E18" s="28">
+        <f t="shared" ref="D18:J18" si="0">IF(AND(E8="NIL",E7="NIL"),"NIL",IF(E8="NIL",E19-IF(E17="NIL",0,E17),E8))</f>
         <v>68110000000</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>58138000000</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <f t="shared" si="0"/>
         <v>50448000000</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>26514000000</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>23178000000</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <f t="shared" si="0"/>
         <v>1327229000</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="28" t="str">
         <f>IF(AND(K8="NIL",K7="NIL"),"NIL",IF(K8="NIL",K19-IF(K17="NIL",0,K17),K8))</f>
-        <v>53061000000</v>
+        <v>NIL</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="30" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C19&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+      <c r="A19" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="29" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C19&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="31">
+      <c r="C19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="30">
         <f>D9</f>
         <v>231839000000</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f>E9</f>
         <v>117532000000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <f>F9</f>
         <v>172384000000</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <f>G9</f>
         <v>130426000000</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <f>H9</f>
         <v>40184000000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="30">
         <f>I9</f>
         <v>54505000000</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <f>J9</f>
         <v>5583082000</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="30">
         <f>K9</f>
-        <v>103206000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.65" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>208527000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="31" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Current</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="28">
         <f>D10</f>
         <v>63448000000</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f t="shared" ref="E21:K21" si="1">E10</f>
         <v>39600000000</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <f t="shared" si="1"/>
         <v>45625000000</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <f t="shared" si="1"/>
         <v>16805000000</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <f t="shared" si="1"/>
         <v>1424000000</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <f t="shared" si="1"/>
         <v>28089000000</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <f t="shared" si="1"/>
         <v>393794000</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>43735000000</v>
+        <v>NIL</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="28" t="str">
-        <f t="shared" ref="B22:B27" si="2">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C22&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+      <c r="A22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="27" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C22&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Noncurrent</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="32">
+        <f t="shared" ref="D22:J22" si="2">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
+        <v>56844000000</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="2"/>
+        <v>65918000000</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="2"/>
+        <v>36975000000</v>
+      </c>
+      <c r="G22" s="32">
+        <f t="shared" si="2"/>
+        <v>9761000000</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" si="2"/>
+        <v>2664000000</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" si="2"/>
+        <v>15675000000</v>
+      </c>
+      <c r="J22" s="32">
+        <f t="shared" si="2"/>
+        <v>1562885000</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f>IF(AND(K10="NIL",K11="NIL"),"NIL",IF(K11="NIL",K23-IF(K21="NIL",0,K21),K11))</f>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="27" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C23&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="33">
-        <f t="shared" ref="D22:J22" si="3">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
-        <v>56844000000</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="3"/>
-        <v>65918000000</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" si="3"/>
-        <v>36975000000</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="3"/>
-        <v>9761000000</v>
-      </c>
-      <c r="H22" s="33">
-        <f t="shared" si="3"/>
-        <v>2664000000</v>
-      </c>
-      <c r="I22" s="33">
-        <f t="shared" si="3"/>
-        <v>15675000000</v>
-      </c>
-      <c r="J22" s="33">
-        <f t="shared" si="3"/>
-        <v>1562885000</v>
-      </c>
-      <c r="K22" s="33">
-        <f>IF(AND(K10="NIL",K11="NIL"),"NIL",IF(K11="NIL",K23-IF(K21="NIL",0,K21),K11))</f>
-        <v>32344000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="28" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$68&amp;"&amp;Element="&amp;C23&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <f>IF(D12="NIL",D27-D26,D12)</f>
         <v>120292000000</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f>IF(E12="NIL",E27-E26,E12)</f>
         <v>105518000000</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f>IF(F12="NIL",F27-F26,F12)</f>
         <v>82600000000</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f>IF(G12="NIL",G27-G26,G12)</f>
         <v>26566000000</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <f>IF(H12="NIL",H27-H26,H12)</f>
         <v>4088000000</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <f>IF(I12="NIL",I27-I26,I12)</f>
         <v>43764000000</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="33">
         <f>IF(J12="NIL",J27-J26,J12)</f>
         <v>1956679000</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f>IF(K12="NIL",K27-K26,K12)</f>
-        <v>76079000000</v>
+        <v>183353000000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="28" t="str">
-        <f t="shared" si="2"/>
+      <c r="A24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="27" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C24&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity Attributable to Parent</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="28">
+        <f t="shared" ref="D24:J24" si="3">IF(D13="NIL",D15-D14,D13)</f>
+        <v>111547000000</v>
+      </c>
+      <c r="E24" s="28">
+        <f t="shared" si="3"/>
+        <v>11868000000</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" si="3"/>
+        <v>89784000000</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="3"/>
+        <v>103860000000</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="3"/>
+        <v>36096000000</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" si="3"/>
+        <v>10741000000</v>
+      </c>
+      <c r="J24" s="28">
+        <f t="shared" si="3"/>
+        <v>3626403000</v>
+      </c>
+      <c r="K24" s="28">
+        <f>IF(K13="NIL",K15-K14,K13)</f>
+        <v>24805000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="27" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C25&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="29">
-        <f>D13</f>
+      <c r="D25" s="28">
+        <f>IF(D14="NIL",0,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="28">
+        <f>IF(E14="NIL",0,E14)</f>
+        <v>146000000</v>
+      </c>
+      <c r="F25" s="28">
+        <f>IF(F14="NIL",0,F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <f>IF(G14="NIL",0,G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
+        <f>IF(H14="NIL",0,H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f>IF(I14="NIL",0,I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f>IF(J14="NIL",0,J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28">
+        <f>IF(K14="NIL",0,K14)</f>
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+      <c r="A26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C26&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="28">
+        <f t="shared" ref="D26:J26" si="4">IF(D15="NIL",D24+D25,D15)</f>
         <v>111547000000</v>
       </c>
-      <c r="E24" s="29">
-        <f t="shared" ref="E24:K24" si="4">E13</f>
-        <v>11868000000</v>
-      </c>
-      <c r="F24" s="29">
+      <c r="E26" s="28">
+        <f t="shared" si="4"/>
+        <v>12014000000</v>
+      </c>
+      <c r="F26" s="28">
         <f t="shared" si="4"/>
         <v>89784000000</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G26" s="28">
         <f t="shared" si="4"/>
         <v>103860000000</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H26" s="28">
         <f t="shared" si="4"/>
         <v>36096000000</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I26" s="28">
         <f t="shared" si="4"/>
         <v>10741000000</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J26" s="28">
         <f t="shared" si="4"/>
         <v>3626403000</v>
       </c>
-      <c r="K24" s="29">
-        <f t="shared" si="4"/>
-        <v>26731000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="29">
-        <f>IF(D14="NIL",0,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
-        <f>IF(E14="NIL",0,E14)</f>
-        <v>146000000</v>
-      </c>
-      <c r="F25" s="29">
-        <f>IF(F14="NIL",0,F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
-        <f>IF(G14="NIL",0,G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="29">
-        <f>IF(H14="NIL",0,H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <f>IF(I14="NIL",0,I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
-        <f>IF(J14="NIL",0,J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="29">
-        <f>IF(K14="NIL",0,K14)</f>
-        <v>396000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="K26" s="28">
+        <f>IF(K15="NIL",K24+K25,K15)</f>
+        <v>24832000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="34" t="str">
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C27&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>Liabilities and Equity</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="29">
-        <f>(D24+D25)</f>
-        <v>111547000000</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" ref="E26:K26" si="5">E24+E25</f>
-        <v>12014000000</v>
-      </c>
-      <c r="F26" s="29">
-        <f t="shared" si="5"/>
-        <v>89784000000</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="5"/>
-        <v>103860000000</v>
-      </c>
-      <c r="H26" s="29">
-        <f t="shared" si="5"/>
-        <v>36096000000</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="5"/>
-        <v>10741000000</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" si="5"/>
-        <v>3626403000</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="5"/>
-        <v>27127000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>Liabilities and Equity</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <f>IF(D16="NIL",D9,D16)</f>
         <v>231839000000</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <f>IF(E16="NIL",E9,E16)</f>
         <v>117532000000</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <f>IF(F16="NIL",F9,F16)</f>
         <v>172384000000</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <f>IF(G16="NIL",G9,G16)</f>
         <v>130426000000</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <f>IF(H16="NIL",H9,H16)</f>
         <v>40184000000</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="30">
         <f>IF(I16="NIL",I9,I16)</f>
         <v>54505000000</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <f>IF(J16="NIL",J9,J16)</f>
         <v>5583082000</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="30">
         <f>IF(K16="NIL",K9,K16)</f>
-        <v>103206000000</v>
+        <v>208527000000</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="66" spans="1:4" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A66" s="36" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A35" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="37"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-    </row>
-    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="38" t="s">
+      <c r="B37" s="38" t="str">
+        <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:K27">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="Calc"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B68" r:id="rId1"/>
-    <hyperlink ref="D68" r:id="rId2"/>
-    <hyperlink ref="C68" r:id="rId3"/>
+    <hyperlink ref="B37" r:id="rId1" display="http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f"/>
+    <hyperlink ref="D37" r:id="rId2"/>
+    <hyperlink ref="C37" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Balance Sheet Compare</t>
   </si>
@@ -113,9 +113,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -135,6 +132,15 @@
   </si>
   <si>
     <t>SORT</t>
+  </si>
+  <si>
+    <t>xbrlValues</t>
+  </si>
+  <si>
+    <t>xbrlCIKLookup</t>
+  </si>
+  <si>
+    <t>xbrlBaseElement</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +260,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -573,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +701,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -969,16 +987,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="59.59765625" customWidth="1"/>
-    <col min="3" max="3" width="41.265625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="41.265625" customWidth="1"/>
     <col min="4" max="4" width="25.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="20.86328125" customWidth="1"/>
@@ -1008,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1042,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
@@ -1084,7 +1102,7 @@
     </row>
     <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1093,35 +1111,35 @@
         <v>13</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;C37&amp;"&amp;Ticker="&amp;D4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B39&amp;"&amp;Ticker="&amp;D4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000320193</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000051143</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;F4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;F4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000789019</v>
       </c>
       <c r="G6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;G4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;G4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0001288776</v>
       </c>
       <c r="H6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;H4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;H4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0001326801</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;I4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;I4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0001018724</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;J4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;J4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0001418091</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$C$37&amp;"&amp;Ticker="&amp;K4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;K4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000037996</v>
       </c>
     </row>
@@ -1130,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="14" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Current</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1174,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C8&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C8&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Noncurrent</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1218,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C9&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C9&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1262,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C10&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C10&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Current</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1306,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C11&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C11&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Noncurrent</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1350,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C12&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C12&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -1394,7 +1412,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C13&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C13&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity Attributable to Parent</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -1438,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C14&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C14&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1482,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C15&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C15&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1526,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C16&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C16&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities and Equity</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1570,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="26" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C17&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C17&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Current</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -1614,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="29" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C18&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C18&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets, Noncurrent</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -1658,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="29" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C19&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C19&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Assets</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -1706,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="31" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Current</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -1750,7 +1768,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C22&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C22&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities, Noncurrent</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -1794,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C23&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C23&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -1838,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C24&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C24&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity Attributable to Parent</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -1882,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C25&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C25&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -1926,7 +1944,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C26&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C26&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -1970,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="34" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;D$37&amp;"&amp;Element="&amp;C27&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C27&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
         <v>Liabilities and Equity</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -2012,29 +2030,31 @@
     <row r="28" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="36"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
@@ -2042,11 +2062,32 @@
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
         <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>28</v>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="38" t="str">
+        <f>"http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
+        <v>http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
       </c>
     </row>
   </sheetData>
@@ -2059,8 +2100,8 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B37" r:id="rId1" display="http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f"/>
-    <hyperlink ref="D37" r:id="rId2"/>
-    <hyperlink ref="C37" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId2" display="http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement"/>
+    <hyperlink ref="B39" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -989,26 +989,26 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.59765625" customWidth="1"/>
-    <col min="3" max="3" width="41.265625" customWidth="1"/>
-    <col min="4" max="4" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.86328125" customWidth="1"/>
-    <col min="11" max="11" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1063,44 +1063,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" ref="D5:K5" si="0">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
         <v>APPLE INC</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;E6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>INTERNATIONAL BUSINESS MACHINES CORP</v>
       </c>
       <c r="F5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;F6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>MICROSOFT CORPORATION</v>
       </c>
       <c r="G5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;G6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>Google Inc.</v>
       </c>
       <c r="H5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;H6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>FACEBOOK INC</v>
       </c>
       <c r="I5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;I6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>AMAZON COM INC</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;J6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>TWITTER, INC.</v>
       </c>
       <c r="K5" s="10" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;K6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f t="shared" si="0"/>
         <v>FORD MOTOR CO</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>34</v>
       </c>
@@ -1115,525 +1115,525 @@
         <v>0000320193</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" ref="E6:K6" si="1">TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;E4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000051143</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;F4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0000789019</v>
       </c>
       <c r="G6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;G4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0001288776</v>
       </c>
       <c r="H6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;H4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0001326801</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;I4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0001018724</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;J4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0001418091</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$39&amp;"&amp;Ticker="&amp;K4),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f t="shared" si="1"/>
         <v>0000037996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Current</v>
+      <c r="B7" s="14" t="e">
+        <f t="shared" ref="B7:B19" si="2">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" ref="D7:K16" si="3">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>68531000000</v>
       </c>
       <c r="E7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>49422000000</v>
       </c>
       <c r="F7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>114246000000</v>
       </c>
       <c r="G7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>79978000000</v>
       </c>
       <c r="H7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>13670000000</v>
       </c>
       <c r="I7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>31327000000</v>
       </c>
       <c r="J7" s="16">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>4255853000</v>
       </c>
       <c r="K7" s="17" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C8&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Noncurrent</v>
+      <c r="B8" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="E8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="F8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="G8" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>50448000000</v>
       </c>
       <c r="H8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="I8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="J8" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="K8" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C8&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C9&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets</v>
+      <c r="B9" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>231839000000</v>
       </c>
       <c r="E9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>117532000000</v>
       </c>
       <c r="F9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>172384000000</v>
       </c>
       <c r="G9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>130426000000</v>
       </c>
       <c r="H9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>40184000000</v>
       </c>
       <c r="I9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>54505000000</v>
       </c>
       <c r="J9" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>5583082000</v>
       </c>
       <c r="K9" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C9&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>208527000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C10&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Current</v>
+      <c r="B10" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>63448000000</v>
       </c>
       <c r="E10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>39600000000</v>
       </c>
       <c r="F10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>45625000000</v>
       </c>
       <c r="G10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>16805000000</v>
       </c>
       <c r="H10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>1424000000</v>
       </c>
       <c r="I10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>28089000000</v>
       </c>
       <c r="J10" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>393794000</v>
       </c>
       <c r="K10" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C10&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C11&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Noncurrent</v>
+      <c r="B11" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="E11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="F11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="G11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="H11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="I11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="J11" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="K11" s="21" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C11&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C12&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities</v>
+      <c r="B12" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>120292000000</v>
       </c>
       <c r="E12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>105518000000</v>
       </c>
       <c r="F12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>82600000000</v>
       </c>
       <c r="G12" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="H12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>4088000000</v>
       </c>
       <c r="I12" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="J12" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>1956679000</v>
       </c>
       <c r="K12" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C12&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>183353000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C13&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Parent</v>
+      <c r="B13" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>111547000000</v>
       </c>
       <c r="E13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>11868000000</v>
       </c>
       <c r="F13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>89784000000</v>
       </c>
       <c r="G13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>103860000000</v>
       </c>
       <c r="H13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>36096000000</v>
       </c>
       <c r="I13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>10741000000</v>
       </c>
       <c r="J13" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>3626403000</v>
       </c>
       <c r="K13" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C13&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>24805000000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C14&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
+      <c r="B14" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="E14" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>146000000</v>
       </c>
       <c r="F14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="G14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="H14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="I14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="J14" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="K14" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C14&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>27000000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C15&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
+      <c r="B15" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="E15" s="20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>12014000000</v>
       </c>
       <c r="F15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="G15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="H15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="I15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="J15" s="20" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
       <c r="K15" s="21">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C15&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>24832000000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C16&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities and Equity</v>
+      <c r="B16" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>231839000000</v>
       </c>
       <c r="E16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;E$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>117532000000</v>
       </c>
       <c r="F16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;F$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>172384000000</v>
       </c>
       <c r="G16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;G$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>130426000000</v>
       </c>
       <c r="H16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;H$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>40184000000</v>
       </c>
       <c r="I16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;I$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>54505000000</v>
       </c>
       <c r="J16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;J$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>5583082000</v>
       </c>
       <c r="K16" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C16&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;K$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f t="shared" si="3"/>
         <v>208527000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C17&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Current</v>
+      <c r="B17" s="26" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="28">
-        <f>D7</f>
+        <f t="shared" ref="D17:K17" si="4">D7</f>
         <v>68531000000</v>
       </c>
       <c r="E17" s="28">
-        <f>E7</f>
+        <f t="shared" si="4"/>
         <v>49422000000</v>
       </c>
       <c r="F17" s="28">
-        <f>F7</f>
+        <f t="shared" si="4"/>
         <v>114246000000</v>
       </c>
       <c r="G17" s="28">
-        <f>G7</f>
+        <f t="shared" si="4"/>
         <v>79978000000</v>
       </c>
       <c r="H17" s="28">
-        <f>H7</f>
+        <f t="shared" si="4"/>
         <v>13670000000</v>
       </c>
       <c r="I17" s="28">
-        <f>I7</f>
+        <f t="shared" si="4"/>
         <v>31327000000</v>
       </c>
       <c r="J17" s="28">
-        <f>J7</f>
+        <f t="shared" si="4"/>
         <v>4255853000</v>
       </c>
       <c r="K17" s="28" t="str">
-        <f>K7</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="4"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="29" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C18&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets, Noncurrent</v>
+      <c r="B18" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>16</v>
@@ -1643,27 +1643,27 @@
         <v>163308000000</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" ref="D18:J18" si="0">IF(AND(E8="NIL",E7="NIL"),"NIL",IF(E8="NIL",E19-IF(E17="NIL",0,E17),E8))</f>
+        <f t="shared" ref="E18:J18" si="5">IF(AND(E8="NIL",E7="NIL"),"NIL",IF(E8="NIL",E19-IF(E17="NIL",0,E17),E8))</f>
         <v>68110000000</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>58138000000</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>50448000000</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>26514000000</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>23178000000</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1327229000</v>
       </c>
       <c r="K18" s="28" t="str">
@@ -1671,61 +1671,61 @@
         <v>NIL</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="29" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C19&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Assets</v>
+      <c r="B19" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="30">
-        <f>D9</f>
+        <f t="shared" ref="D19:K19" si="6">D9</f>
         <v>231839000000</v>
       </c>
       <c r="E19" s="30">
-        <f>E9</f>
+        <f t="shared" si="6"/>
         <v>117532000000</v>
       </c>
       <c r="F19" s="30">
-        <f>F9</f>
+        <f t="shared" si="6"/>
         <v>172384000000</v>
       </c>
       <c r="G19" s="30">
-        <f>G9</f>
+        <f t="shared" si="6"/>
         <v>130426000000</v>
       </c>
       <c r="H19" s="30">
-        <f>H9</f>
+        <f t="shared" si="6"/>
         <v>40184000000</v>
       </c>
       <c r="I19" s="30">
-        <f>I9</f>
+        <f t="shared" si="6"/>
         <v>54505000000</v>
       </c>
       <c r="J19" s="30">
-        <f>J9</f>
+        <f t="shared" si="6"/>
         <v>5583082000</v>
       </c>
       <c r="K19" s="30">
-        <f>K9</f>
+        <f t="shared" si="6"/>
         <v>208527000000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="31" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Current</v>
+      <c r="B21" s="31" t="e">
+        <f t="shared" ref="B21:B27" si="7">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>18</v>
@@ -1735,71 +1735,71 @@
         <v>63448000000</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" ref="E21:K21" si="1">E10</f>
+        <f t="shared" ref="E21:K21" si="8">E10</f>
         <v>39600000000</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45625000000</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16805000000</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1424000000</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>28089000000</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>393794000</v>
       </c>
       <c r="K21" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="8"/>
+        <v>NIL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C22&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities, Noncurrent</v>
+      <c r="B22" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="32">
-        <f t="shared" ref="D22:J22" si="2">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
+        <f t="shared" ref="D22:J22" si="9">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
         <v>56844000000</v>
       </c>
       <c r="E22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>65918000000</v>
       </c>
       <c r="F22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>36975000000</v>
       </c>
       <c r="G22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9761000000</v>
       </c>
       <c r="H22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2664000000</v>
       </c>
       <c r="I22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>15675000000</v>
       </c>
       <c r="J22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1562885000</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -1807,87 +1807,87 @@
         <v>NIL</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C23&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities</v>
+      <c r="B23" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="33">
-        <f>IF(D12="NIL",D27-D26,D12)</f>
+        <f t="shared" ref="D23:K23" si="10">IF(D12="NIL",D27-D26,D12)</f>
         <v>120292000000</v>
       </c>
       <c r="E23" s="33">
-        <f>IF(E12="NIL",E27-E26,E12)</f>
+        <f t="shared" si="10"/>
         <v>105518000000</v>
       </c>
       <c r="F23" s="33">
-        <f>IF(F12="NIL",F27-F26,F12)</f>
+        <f t="shared" si="10"/>
         <v>82600000000</v>
       </c>
       <c r="G23" s="33">
-        <f>IF(G12="NIL",G27-G26,G12)</f>
+        <f t="shared" si="10"/>
         <v>26566000000</v>
       </c>
       <c r="H23" s="33">
-        <f>IF(H12="NIL",H27-H26,H12)</f>
+        <f t="shared" si="10"/>
         <v>4088000000</v>
       </c>
       <c r="I23" s="33">
-        <f>IF(I12="NIL",I27-I26,I12)</f>
+        <f t="shared" si="10"/>
         <v>43764000000</v>
       </c>
       <c r="J23" s="33">
-        <f>IF(J12="NIL",J27-J26,J12)</f>
+        <f t="shared" si="10"/>
         <v>1956679000</v>
       </c>
       <c r="K23" s="33">
-        <f>IF(K12="NIL",K27-K26,K12)</f>
+        <f t="shared" si="10"/>
         <v>183353000000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C24&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Parent</v>
+      <c r="B24" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" ref="D24:J24" si="3">IF(D13="NIL",D15-D14,D13)</f>
+        <f t="shared" ref="D24:J24" si="11">IF(D13="NIL",D15-D14,D13)</f>
         <v>111547000000</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>11868000000</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>89784000000</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>103860000000</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>36096000000</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>10741000000</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3626403000</v>
       </c>
       <c r="K24" s="28">
@@ -1895,87 +1895,87 @@
         <v>24805000000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C25&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity Attributable to Noncontrolling Interest</v>
+      <c r="B25" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="28">
-        <f>IF(D14="NIL",0,D14)</f>
+        <f t="shared" ref="D25:K25" si="12">IF(D14="NIL",0,D14)</f>
         <v>0</v>
       </c>
       <c r="E25" s="28">
-        <f>IF(E14="NIL",0,E14)</f>
+        <f t="shared" si="12"/>
         <v>146000000</v>
       </c>
       <c r="F25" s="28">
-        <f>IF(F14="NIL",0,F14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f>IF(G14="NIL",0,G14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f>IF(H14="NIL",0,H14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f>IF(I14="NIL",0,I14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f>IF(J14="NIL",0,J14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f>IF(K14="NIL",0,K14)</f>
+        <f t="shared" si="12"/>
         <v>27000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C26&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Stockholders' Equity, Including Portion Attributable to Noncontrolling Interest</v>
+      <c r="B26" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" ref="D26:J26" si="4">IF(D15="NIL",D24+D25,D15)</f>
+        <f t="shared" ref="D26:J26" si="13">IF(D15="NIL",D24+D25,D15)</f>
         <v>111547000000</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>12014000000</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>89784000000</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>103860000000</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>36096000000</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10741000000</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3626403000</v>
       </c>
       <c r="K26" s="28">
@@ -1983,58 +1983,58 @@
         <v>24832000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="34" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C27&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>Liabilities and Equity</v>
+      <c r="B27" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="30">
-        <f>IF(D16="NIL",D9,D16)</f>
+        <f t="shared" ref="D27:K27" si="14">IF(D16="NIL",D9,D16)</f>
         <v>231839000000</v>
       </c>
       <c r="E27" s="30">
-        <f>IF(E16="NIL",E9,E16)</f>
+        <f t="shared" si="14"/>
         <v>117532000000</v>
       </c>
       <c r="F27" s="30">
-        <f>IF(F16="NIL",F9,F16)</f>
+        <f t="shared" si="14"/>
         <v>172384000000</v>
       </c>
       <c r="G27" s="30">
-        <f>IF(G16="NIL",G9,G16)</f>
+        <f t="shared" si="14"/>
         <v>130426000000</v>
       </c>
       <c r="H27" s="30">
-        <f>IF(H16="NIL",H9,H16)</f>
+        <f t="shared" si="14"/>
         <v>40184000000</v>
       </c>
       <c r="I27" s="30">
-        <f>IF(I16="NIL",I9,I16)</f>
+        <f t="shared" si="14"/>
         <v>54505000000</v>
       </c>
       <c r="J27" s="30">
-        <f>IF(J16="NIL",J9,J16)</f>
+        <f t="shared" si="14"/>
         <v>5583082000</v>
       </c>
       <c r="K27" s="30">
-        <f>IF(K16="NIL",K9,K16)</f>
+        <f t="shared" si="14"/>
         <v>208527000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
@@ -2042,19 +2042,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
@@ -2063,12 +2063,12 @@
         <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>27</v>
       </c>
@@ -2076,24 +2076,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
-        <f>"http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://test.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
+        <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:K27">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="Calc"/>
       </filters>
     </filterColumn>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\David\Documents\GitHub\data_analysis_toolkit\templates\BalanceSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Balance Sheet Compare</t>
   </si>
@@ -128,9 +128,6 @@
     <t>API_KEY</t>
   </si>
   <si>
-    <t>22f14062-1cc0-0298-1cae-cd793a60c05f</t>
-  </si>
-  <si>
     <t>SORT</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>xbrlBaseElement</t>
+  </si>
+  <si>
+    <t>344858fc-6bbb-4870-9c3a-9ddf866f87e7</t>
+  </si>
+  <si>
+    <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
 </sst>
 </file>
@@ -148,11 +151,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +271,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -587,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,55 +635,55 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,10 +704,10 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -705,6 +716,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,8 +1001,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -2034,41 +2046,44 @@
       </c>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>27</v>
       </c>
@@ -2076,18 +2091,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\David\Documents\GitHub\data_analysis_toolkit\templates\BalanceSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BS Compare'!$A$6:$K$27</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -140,22 +135,22 @@
     <t>xbrlBaseElement</t>
   </si>
   <si>
-    <t>344858fc-6bbb-4870-9c3a-9ddf866f87e7</t>
-  </si>
-  <si>
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
+  </si>
+  <si>
+    <t>4af8ed08-e6c2-4558-9f19-be677f8186eb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +808,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -990,37 +985,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1028,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1041,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1075,44 +1070,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="23.7" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:K5" si="0">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>APPLE INC</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>INTERNATIONAL BUSINESS MACHINES CORP</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MICROSOFT CORPORATION</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Google Inc.</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>FACEBOOK INC</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>AMAZON COM INC</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TWITTER, INC.</v>
-      </c>
-      <c r="K5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>FORD MOTOR CO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9" t="e">
+        <f t="shared" ref="D5:K5" ca="1" si="0">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;D6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1155,935 +1150,935 @@
         <v>0000037996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="e">
-        <f t="shared" ref="B7:B19" si="2">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="B7:B19" ca="1" si="2">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C7&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:K16" si="3">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>68531000000</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="3"/>
-        <v>49422000000</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="3"/>
-        <v>114246000000</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="3"/>
-        <v>79978000000</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" si="3"/>
-        <v>13670000000</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" si="3"/>
-        <v>31327000000</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="3"/>
-        <v>4255853000</v>
-      </c>
-      <c r="K7" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="e">
+        <f t="shared" ref="D7:K16" ca="1" si="3">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$37&amp;"&amp;Element="&amp;$C7&amp;"&amp;Period="&amp;$D$3&amp;"&amp;Year="&amp;$D$2&amp;"&amp;CIK="&amp;D$6&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="17" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="E8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="F8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="3"/>
-        <v>50448000000</v>
-      </c>
-      <c r="H8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="I8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="J8" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20">
-        <f t="shared" si="3"/>
-        <v>231839000000</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="3"/>
-        <v>117532000000</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="3"/>
-        <v>172384000000</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="3"/>
-        <v>130426000000</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="3"/>
-        <v>40184000000</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="3"/>
-        <v>54505000000</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="3"/>
-        <v>5583082000</v>
-      </c>
-      <c r="K9" s="21">
-        <f t="shared" si="3"/>
-        <v>208527000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20">
-        <f t="shared" si="3"/>
-        <v>63448000000</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" si="3"/>
-        <v>39600000000</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="3"/>
-        <v>45625000000</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="3"/>
-        <v>16805000000</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" si="3"/>
-        <v>1424000000</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="3"/>
-        <v>28089000000</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" si="3"/>
-        <v>393794000</v>
-      </c>
-      <c r="K10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="E11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="F11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="G11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="H11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="I11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="J11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="K11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="20">
-        <f t="shared" si="3"/>
-        <v>120292000000</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" si="3"/>
-        <v>105518000000</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="3"/>
-        <v>82600000000</v>
-      </c>
-      <c r="G12" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="3"/>
-        <v>4088000000</v>
-      </c>
-      <c r="I12" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="3"/>
-        <v>1956679000</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="3"/>
-        <v>183353000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="20">
-        <f t="shared" si="3"/>
-        <v>111547000000</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" si="3"/>
-        <v>11868000000</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="3"/>
-        <v>89784000000</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="3"/>
-        <v>103860000000</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="3"/>
-        <v>36096000000</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="3"/>
-        <v>10741000000</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="3"/>
-        <v>3626403000</v>
-      </c>
-      <c r="K13" s="21">
-        <f t="shared" si="3"/>
-        <v>24805000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K13" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="3"/>
-        <v>146000000</v>
-      </c>
-      <c r="F14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="G14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="H14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="I14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="J14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" si="3"/>
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="3"/>
-        <v>12014000000</v>
-      </c>
-      <c r="F15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="G15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="H15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="I15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="J15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>NIL</v>
-      </c>
-      <c r="K15" s="21">
-        <f t="shared" si="3"/>
-        <v>24832000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="20" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="21" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24">
-        <f t="shared" si="3"/>
-        <v>231839000000</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="3"/>
-        <v>117532000000</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="3"/>
-        <v>172384000000</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="3"/>
-        <v>130426000000</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" si="3"/>
-        <v>40184000000</v>
-      </c>
-      <c r="I16" s="24">
-        <f t="shared" si="3"/>
-        <v>54505000000</v>
-      </c>
-      <c r="J16" s="24">
-        <f t="shared" si="3"/>
-        <v>5583082000</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" si="3"/>
-        <v>208527000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="24" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="25" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="26" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="28">
-        <f t="shared" ref="D17:K17" si="4">D7</f>
-        <v>68531000000</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" si="4"/>
-        <v>49422000000</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="4"/>
-        <v>114246000000</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="4"/>
-        <v>79978000000</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="4"/>
-        <v>13670000000</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="4"/>
-        <v>31327000000</v>
-      </c>
-      <c r="J17" s="28">
-        <f t="shared" si="4"/>
-        <v>4255853000</v>
-      </c>
-      <c r="K17" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="28" t="e">
+        <f t="shared" ref="D17:K17" ca="1" si="4">D7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="29" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="28">
-        <f>IF(AND(D8="NIL",D7="NIL"),"NIL",IF(D8="NIL",D19-IF(D17="NIL",0,D17),D8))</f>
-        <v>163308000000</v>
-      </c>
-      <c r="E18" s="28">
-        <f t="shared" ref="E18:J18" si="5">IF(AND(E8="NIL",E7="NIL"),"NIL",IF(E8="NIL",E19-IF(E17="NIL",0,E17),E8))</f>
-        <v>68110000000</v>
-      </c>
-      <c r="F18" s="28">
-        <f t="shared" si="5"/>
-        <v>58138000000</v>
-      </c>
-      <c r="G18" s="28">
-        <f t="shared" si="5"/>
-        <v>50448000000</v>
-      </c>
-      <c r="H18" s="28">
-        <f t="shared" si="5"/>
-        <v>26514000000</v>
-      </c>
-      <c r="I18" s="28">
-        <f t="shared" si="5"/>
-        <v>23178000000</v>
-      </c>
-      <c r="J18" s="28">
-        <f t="shared" si="5"/>
-        <v>1327229000</v>
-      </c>
-      <c r="K18" s="28" t="str">
-        <f>IF(AND(K8="NIL",K7="NIL"),"NIL",IF(K8="NIL",K19-IF(K17="NIL",0,K17),K8))</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="28" t="e">
+        <f ca="1">IF(AND(D8="NIL",D7="NIL"),"NIL",IF(D8="NIL",D19-IF(D17="NIL",0,D17),D8))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" s="28" t="e">
+        <f t="shared" ref="E18:J18" ca="1" si="5">IF(AND(E8="NIL",E7="NIL"),"NIL",IF(E8="NIL",E19-IF(E17="NIL",0,E17),E8))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G18" s="28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H18" s="28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" s="28" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="28" t="e">
+        <f ca="1">IF(AND(K8="NIL",K7="NIL"),"NIL",IF(K8="NIL",K19-IF(K17="NIL",0,K17),K8))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="29" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="30">
-        <f t="shared" ref="D19:K19" si="6">D9</f>
-        <v>231839000000</v>
-      </c>
-      <c r="E19" s="30">
-        <f t="shared" si="6"/>
-        <v>117532000000</v>
-      </c>
-      <c r="F19" s="30">
-        <f t="shared" si="6"/>
-        <v>172384000000</v>
-      </c>
-      <c r="G19" s="30">
-        <f t="shared" si="6"/>
-        <v>130426000000</v>
-      </c>
-      <c r="H19" s="30">
-        <f t="shared" si="6"/>
-        <v>40184000000</v>
-      </c>
-      <c r="I19" s="30">
-        <f t="shared" si="6"/>
-        <v>54505000000</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="6"/>
-        <v>5583082000</v>
-      </c>
-      <c r="K19" s="30">
-        <f t="shared" si="6"/>
-        <v>208527000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="30" t="e">
+        <f t="shared" ref="D19:K19" ca="1" si="6">D9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1">
       <c r="A20" s="43"/>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="31" t="e">
-        <f t="shared" ref="B21:B27" si="7">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="B21:B27" ca="1" si="7">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B$41&amp;"&amp;Element="&amp;C21&amp;""),"//dataRequest/baseElement/standard/labelValue")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="28">
-        <f>D10</f>
-        <v>63448000000</v>
-      </c>
-      <c r="E21" s="28">
-        <f t="shared" ref="E21:K21" si="8">E10</f>
-        <v>39600000000</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" si="8"/>
-        <v>45625000000</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="8"/>
-        <v>16805000000</v>
-      </c>
-      <c r="H21" s="28">
-        <f t="shared" si="8"/>
-        <v>1424000000</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" si="8"/>
-        <v>28089000000</v>
-      </c>
-      <c r="J21" s="28">
-        <f t="shared" si="8"/>
-        <v>393794000</v>
-      </c>
-      <c r="K21" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="28" t="e">
+        <f ca="1">D10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="28" t="e">
+        <f t="shared" ref="E21:K21" ca="1" si="8">E10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K21" s="28" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="32">
-        <f t="shared" ref="D22:J22" si="9">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
-        <v>56844000000</v>
-      </c>
-      <c r="E22" s="32">
-        <f t="shared" si="9"/>
-        <v>65918000000</v>
-      </c>
-      <c r="F22" s="32">
-        <f t="shared" si="9"/>
-        <v>36975000000</v>
-      </c>
-      <c r="G22" s="32">
-        <f t="shared" si="9"/>
-        <v>9761000000</v>
-      </c>
-      <c r="H22" s="32">
-        <f t="shared" si="9"/>
-        <v>2664000000</v>
-      </c>
-      <c r="I22" s="32">
-        <f t="shared" si="9"/>
-        <v>15675000000</v>
-      </c>
-      <c r="J22" s="32">
-        <f t="shared" si="9"/>
-        <v>1562885000</v>
-      </c>
-      <c r="K22" s="32" t="str">
-        <f>IF(AND(K10="NIL",K11="NIL"),"NIL",IF(K11="NIL",K23-IF(K21="NIL",0,K21),K11))</f>
-        <v>NIL</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="32" t="e">
+        <f t="shared" ref="D22:J22" ca="1" si="9">IF(AND(D10="NIL",D11="NIL"),"NIL",IF(D11="NIL",D23-IF(D21="NIL",0,D21),D11))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="32" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K22" s="32" t="e">
+        <f ca="1">IF(AND(K10="NIL",K11="NIL"),"NIL",IF(K11="NIL",K23-IF(K21="NIL",0,K21),K11))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="33">
-        <f t="shared" ref="D23:K23" si="10">IF(D12="NIL",D27-D26,D12)</f>
-        <v>120292000000</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="10"/>
-        <v>105518000000</v>
-      </c>
-      <c r="F23" s="33">
-        <f t="shared" si="10"/>
-        <v>82600000000</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="10"/>
-        <v>26566000000</v>
-      </c>
-      <c r="H23" s="33">
-        <f t="shared" si="10"/>
-        <v>4088000000</v>
-      </c>
-      <c r="I23" s="33">
-        <f t="shared" si="10"/>
-        <v>43764000000</v>
-      </c>
-      <c r="J23" s="33">
-        <f t="shared" si="10"/>
-        <v>1956679000</v>
-      </c>
-      <c r="K23" s="33">
-        <f t="shared" si="10"/>
-        <v>183353000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="e">
+        <f t="shared" ref="D23:K23" ca="1" si="10">IF(D12="NIL",D27-D26,D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K23" s="33" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="28">
-        <f t="shared" ref="D24:J24" si="11">IF(D13="NIL",D15-D14,D13)</f>
-        <v>111547000000</v>
-      </c>
-      <c r="E24" s="28">
-        <f t="shared" si="11"/>
-        <v>11868000000</v>
-      </c>
-      <c r="F24" s="28">
-        <f t="shared" si="11"/>
-        <v>89784000000</v>
-      </c>
-      <c r="G24" s="28">
-        <f t="shared" si="11"/>
-        <v>103860000000</v>
-      </c>
-      <c r="H24" s="28">
-        <f t="shared" si="11"/>
-        <v>36096000000</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" si="11"/>
-        <v>10741000000</v>
-      </c>
-      <c r="J24" s="28">
-        <f t="shared" si="11"/>
-        <v>3626403000</v>
-      </c>
-      <c r="K24" s="28">
-        <f>IF(K13="NIL",K15-K14,K13)</f>
-        <v>24805000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="28" t="e">
+        <f t="shared" ref="D24:J24" ca="1" si="11">IF(D13="NIL",D15-D14,D13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="28" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K24" s="28" t="e">
+        <f ca="1">IF(K13="NIL",K15-K14,K13)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="28">
-        <f t="shared" ref="D25:K25" si="12">IF(D14="NIL",0,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="28">
-        <f t="shared" si="12"/>
-        <v>146000000</v>
-      </c>
-      <c r="F25" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="28">
-        <f t="shared" si="12"/>
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="28" t="e">
+        <f t="shared" ref="D25:K25" ca="1" si="12">IF(D14="NIL",0,D14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K25" s="28" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="24.6">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="27" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="28">
-        <f t="shared" ref="D26:J26" si="13">IF(D15="NIL",D24+D25,D15)</f>
-        <v>111547000000</v>
-      </c>
-      <c r="E26" s="28">
-        <f t="shared" si="13"/>
-        <v>12014000000</v>
-      </c>
-      <c r="F26" s="28">
-        <f t="shared" si="13"/>
-        <v>89784000000</v>
-      </c>
-      <c r="G26" s="28">
-        <f t="shared" si="13"/>
-        <v>103860000000</v>
-      </c>
-      <c r="H26" s="28">
-        <f t="shared" si="13"/>
-        <v>36096000000</v>
-      </c>
-      <c r="I26" s="28">
-        <f t="shared" si="13"/>
-        <v>10741000000</v>
-      </c>
-      <c r="J26" s="28">
-        <f t="shared" si="13"/>
-        <v>3626403000</v>
-      </c>
-      <c r="K26" s="28">
-        <f>IF(K15="NIL",K24+K25,K15)</f>
-        <v>24832000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="28" t="e">
+        <f t="shared" ref="D26:J26" ca="1" si="13">IF(D15="NIL",D24+D25,D15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J26" s="28" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K26" s="28" t="e">
+        <f ca="1">IF(K15="NIL",K24+K25,K15)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="34" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="30">
-        <f t="shared" ref="D27:K27" si="14">IF(D16="NIL",D9,D16)</f>
-        <v>231839000000</v>
-      </c>
-      <c r="E27" s="30">
-        <f t="shared" si="14"/>
-        <v>117532000000</v>
-      </c>
-      <c r="F27" s="30">
-        <f t="shared" si="14"/>
-        <v>172384000000</v>
-      </c>
-      <c r="G27" s="30">
-        <f t="shared" si="14"/>
-        <v>130426000000</v>
-      </c>
-      <c r="H27" s="30">
-        <f t="shared" si="14"/>
-        <v>40184000000</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="14"/>
-        <v>54505000000</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="14"/>
-        <v>5583082000</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="14"/>
-        <v>208527000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="30" t="e">
+        <f t="shared" ref="D27:K27" ca="1" si="14">IF(D16="NIL",D9,D16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K27" s="30" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickTop="1"/>
+    <row r="32" spans="1:11" ht="28.2">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="42">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="37" t="s">
         <v>27</v>
       </c>
@@ -2091,18 +2086,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BS Compare'!$A$6:$K$27</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>4af8ed08-e6c2-4558-9f19-be677f8186eb</t>
+    <t>ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,17 +997,17 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="6" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.7" customHeight="1">
+    <row r="5" spans="1:11" ht="23.65" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" hidden="1">
+    <row r="15" spans="1:11" ht="30" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.6">
+    <row r="26" spans="1:11" ht="24.75">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
@@ -2034,8 +2034,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickTop="1"/>
-    <row r="32" spans="1:11" ht="28.2">
+    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42">
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
@@ -2064,13 +2064,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="28.8">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2091,13 +2091,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</t>
+    <t>affb2aa2-614a-4d14-a5ed-27854f9cdf43</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,14 +1000,14 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1">
+    <row r="5" spans="1:11" ht="23.7" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1">
+    <row r="15" spans="1:11" ht="28.8" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.75">
+    <row r="26" spans="1:11" ht="24.6">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
@@ -2034,8 +2034,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="32" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="15" thickTop="1"/>
+    <row r="32" spans="1:11" ht="28.2">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="42">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
@@ -2064,13 +2064,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="28.8">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2091,13 +2091,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>affb2aa2-614a-4d14-a5ed-27854f9cdf43</t>
+    <t>5fbe9f8a-2911-4fad-af02-7df4516b9870</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,9 +996,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2097,7 +2095,7 @@
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BalanceSheet/BSCompare.xlsx
+++ b/templates/BalanceSheet/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>5fbe9f8a-2911-4fad-af02-7df4516b9870</t>
+    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
   </si>
 </sst>
 </file>
@@ -998,14 +998,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="6" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1068,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.7" customHeight="1">
+    <row r="5" spans="1:11" ht="23.65" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" hidden="1">
+    <row r="15" spans="1:11" ht="30" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.6">
+    <row r="26" spans="1:11" ht="24.75">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2032,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickTop="1"/>
-    <row r="32" spans="1:11" ht="28.2">
+    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42">
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
@@ -2062,13 +2062,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="28.8">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2089,13 +2089,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
       </c>
     </row>
   </sheetData>
